--- a/pred_ohlcv/54_21/2020-01-20 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-185.3532</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-210.2532</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-209.3603</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-208.3409</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-159.1692</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-168.7985</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-160.4469</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-165.7537</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-123.0273</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-108.4214</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-96.72139999999999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-84.72129999999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-87.72129999999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-80.68819999999998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-77.68819999999998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-79.31429999999997</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-82.31419999999997</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-198.3862</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-195.707</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-195.707</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-198.0211</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-195.1944999999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-195.4735999999999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-207.4735999999999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-180.3985</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-222.3989049200001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-223.97518401</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-227.0172840100001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-268.4421840100001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-131.4421840100001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>418.71261599</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>407.76082242</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>405.76082242</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>410.87402242</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>429.09452242</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>449.66282242</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>444.54962242</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>454.59664262</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>458.09804262</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>459.94134262</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-697.3761897500001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-670.2676897500002</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-671.8909897500002</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-671.8809897500003</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-671.6229897500002</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-938.2097294599995</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-949.0373294599995</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-947.0273294599995</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-852.8530294599994</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-851.4688294599995</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-1349.864987259999</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-185.3532</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-168.7985</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-123.0273</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-108.4214</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-96.72139999999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-84.72129999999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-87.72129999999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-80.68819999999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-77.68819999999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-79.31429999999997</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-82.31419999999997</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-198.3862</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-195.707</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-198.0211</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-195.1944999999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-195.4735999999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-207.4735999999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-180.3985</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-190.3985</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-222.3989049200001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-223.97518401</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-227.0172840100001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-268.4421840100001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-131.4421840100001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>418.71261599</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>407.76082242</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>405.76082242</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>410.87402242</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>429.09452242</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>449.66282242</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>444.54962242</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>454.59664262</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>458.09804262</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>459.94134262</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-697.3761897500001</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-670.2676897500002</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-671.8909897500002</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-671.8809897500003</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-671.6229897500002</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-938.2097294599995</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-949.0373294599995</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-947.0273294599995</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-852.8530294599994</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-851.4688294599995</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-1264.24038726</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1275.13098726</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-1278.779787259999</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-1349.864987259999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
